--- a/artfynd/A 8394-2019.xlsx
+++ b/artfynd/A 8394-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80448769</v>
+        <v>80448771</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>422991.0759451608</v>
+        <v>423289.9356373397</v>
       </c>
       <c r="R2" t="n">
-        <v>6752021.173145968</v>
+        <v>6752041.978126496</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -766,11 +766,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Rikligt, hkb</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80448775</v>
+        <v>80448772</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>423036.1594514723</v>
+        <v>423289.9356373397</v>
       </c>
       <c r="R3" t="n">
-        <v>6752009.000504656</v>
+        <v>6752041.978126496</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -883,11 +878,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Rikligt, hkb</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -914,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>80448777</v>
+        <v>80448769</v>
       </c>
       <c r="B4" t="n">
         <v>77506</v>
@@ -954,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>423115.1561234437</v>
+        <v>422991.0759451608</v>
       </c>
       <c r="R4" t="n">
-        <v>6752009.239606674</v>
+        <v>6752021.173145968</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1000,6 +990,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Rikligt, hkb</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1026,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80448771</v>
+        <v>80448775</v>
       </c>
       <c r="B5" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,21 +1037,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1066,10 +1061,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>423289.9356373397</v>
+        <v>423036.1594514723</v>
       </c>
       <c r="R5" t="n">
-        <v>6752041.978126496</v>
+        <v>6752009.000504656</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1112,6 +1107,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Rikligt, hkb</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1138,7 +1138,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>80448779</v>
+        <v>80448777</v>
       </c>
       <c r="B6" t="n">
         <v>77506</v>
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>422962.8083476268</v>
+        <v>423115.1561234437</v>
       </c>
       <c r="R6" t="n">
-        <v>6752021.785183201</v>
+        <v>6752009.239606674</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1224,11 +1224,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,7 +1250,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80448780</v>
+        <v>80448779</v>
       </c>
       <c r="B7" t="n">
         <v>77506</v>
@@ -1295,10 +1290,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>423056.1482692101</v>
+        <v>422962.8083476268</v>
       </c>
       <c r="R7" t="n">
-        <v>6751963.779848268</v>
+        <v>6752021.785183201</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1345,7 +1340,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Spritt</t>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1372,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>80448772</v>
+        <v>80448780</v>
       </c>
       <c r="B8" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,21 +1383,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1412,10 +1407,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>423289.9356373397</v>
+        <v>423056.1482692101</v>
       </c>
       <c r="R8" t="n">
-        <v>6752041.978126496</v>
+        <v>6751963.779848268</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1458,6 +1453,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Spritt</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1484,14 +1484,14 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>80448773</v>
+        <v>80448778</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1500,21 +1500,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1524,10 +1524,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>422635.9957601223</v>
+        <v>423115.1561234437</v>
       </c>
       <c r="R9" t="n">
-        <v>6751949.037152009</v>
+        <v>6752009.239606674</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1580,21 +1580,6 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>vanlig tall</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris var. sylvestris</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris var. sylvestris</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1611,14 +1596,14 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>80448778</v>
+        <v>80448773</v>
       </c>
       <c r="B10" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1627,21 +1612,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1651,10 +1636,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>423115.1561234437</v>
+        <v>422635.9957601223</v>
       </c>
       <c r="R10" t="n">
-        <v>6752009.239606674</v>
+        <v>6751949.037152009</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1707,6 +1692,21 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>vanlig tall</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris var. sylvestris</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris var. sylvestris</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">

--- a/artfynd/A 8394-2019.xlsx
+++ b/artfynd/A 8394-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80448771</v>
+        <v>80448769</v>
       </c>
       <c r="B2" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>423289.9356373397</v>
+        <v>422991.0759451608</v>
       </c>
       <c r="R2" t="n">
-        <v>6752041.978126496</v>
+        <v>6752021.173145968</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -766,6 +766,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Rikligt, hkb</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80448772</v>
+        <v>80448775</v>
       </c>
       <c r="B3" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>423289.9356373397</v>
+        <v>423036.1594514723</v>
       </c>
       <c r="R3" t="n">
-        <v>6752041.978126496</v>
+        <v>6752009.000504656</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -878,6 +883,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Rikligt, hkb</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,7 +914,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>80448769</v>
+        <v>80448777</v>
       </c>
       <c r="B4" t="n">
         <v>77506</v>
@@ -944,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>422991.0759451608</v>
+        <v>423115.1561234437</v>
       </c>
       <c r="R4" t="n">
-        <v>6752021.173145968</v>
+        <v>6752009.239606674</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -990,11 +1000,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Rikligt, hkb</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80448775</v>
+        <v>80448771</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,21 +1042,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1061,10 +1066,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>423036.1594514723</v>
+        <v>423289.9356373397</v>
       </c>
       <c r="R5" t="n">
-        <v>6752009.000504656</v>
+        <v>6752041.978126496</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1107,11 +1112,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Rikligt, hkb</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1138,7 +1138,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>80448777</v>
+        <v>80448779</v>
       </c>
       <c r="B6" t="n">
         <v>77506</v>
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>423115.1561234437</v>
+        <v>422962.8083476268</v>
       </c>
       <c r="R6" t="n">
-        <v>6752009.239606674</v>
+        <v>6752021.785183201</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1224,6 +1224,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1250,7 +1255,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80448779</v>
+        <v>80448780</v>
       </c>
       <c r="B7" t="n">
         <v>77506</v>
@@ -1290,10 +1295,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>422962.8083476268</v>
+        <v>423056.1482692101</v>
       </c>
       <c r="R7" t="n">
-        <v>6752021.785183201</v>
+        <v>6751963.779848268</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1340,7 +1345,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>Spritt</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1367,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>80448780</v>
+        <v>80448772</v>
       </c>
       <c r="B8" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1383,21 +1388,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1407,10 +1412,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>423056.1482692101</v>
+        <v>423289.9356373397</v>
       </c>
       <c r="R8" t="n">
-        <v>6751963.779848268</v>
+        <v>6752041.978126496</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1453,11 +1458,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Spritt</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1484,14 +1484,14 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>80448778</v>
+        <v>80448773</v>
       </c>
       <c r="B9" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1500,21 +1500,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1524,10 +1524,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>423115.1561234437</v>
+        <v>422635.9957601223</v>
       </c>
       <c r="R9" t="n">
-        <v>6752009.239606674</v>
+        <v>6751949.037152009</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1580,6 +1580,21 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>vanlig tall</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris var. sylvestris</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris var. sylvestris</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1596,14 +1611,14 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>80448773</v>
+        <v>80448778</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1612,21 +1627,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1636,10 +1651,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>422635.9957601223</v>
+        <v>423115.1561234437</v>
       </c>
       <c r="R10" t="n">
-        <v>6751949.037152009</v>
+        <v>6752009.239606674</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1692,21 +1707,6 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>vanlig tall</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris var. sylvestris</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris var. sylvestris</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
